--- a/excel/import_data_nilai.xlsx
+++ b/excel/import_data_nilai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E0E5DD-A967-4482-B845-741F4DB94FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6825FD0A-D37B-4922-974C-01CA0DACD1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>NO</t>
   </si>
@@ -37,22 +37,208 @@
     <t>NILAI</t>
   </si>
   <si>
-    <t>S_MCBW4Q7P</t>
-  </si>
-  <si>
-    <t>Seno Aji</t>
-  </si>
-  <si>
-    <t>S_FZVUSP23</t>
-  </si>
-  <si>
-    <t>Sandi Nur Alam</t>
-  </si>
-  <si>
-    <t>S_U4PNNPNK</t>
-  </si>
-  <si>
-    <t>Farel Iqbal</t>
+    <t>S_PIWUHIIS</t>
+  </si>
+  <si>
+    <t>LATHIIFAH SAARAH NAILA DIYANTI</t>
+  </si>
+  <si>
+    <t>S_P627E0XB</t>
+  </si>
+  <si>
+    <t>AKBAR RIZKY NUR RACHMAD</t>
+  </si>
+  <si>
+    <t>S_FKPJ8VJ1</t>
+  </si>
+  <si>
+    <t>AZKHA RAVIL GADING SAPUTRA</t>
+  </si>
+  <si>
+    <t>S_155XRF2S</t>
+  </si>
+  <si>
+    <t>BURHAN NICO RAHENDRA</t>
+  </si>
+  <si>
+    <t>S_97WKSOPK</t>
+  </si>
+  <si>
+    <t>DIMAS WAHYU WIBISONO</t>
+  </si>
+  <si>
+    <t>S_IA2GE45H</t>
+  </si>
+  <si>
+    <t>FARDHAN KURNIAWAN SAPUTRA</t>
+  </si>
+  <si>
+    <t>S_DZQBY29J</t>
+  </si>
+  <si>
+    <t>GHOZY LUCKY RAMADHAN</t>
+  </si>
+  <si>
+    <t>S_W1DIYZQ2</t>
+  </si>
+  <si>
+    <t>ITSARPUTRA ADYATMA</t>
+  </si>
+  <si>
+    <t>S_JPKRW158</t>
+  </si>
+  <si>
+    <t>MARCELLO HANAN ARDIANSYAH</t>
+  </si>
+  <si>
+    <t>S_4L6JBCZA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ALFARELLIZY KURNIA ARDANA</t>
+  </si>
+  <si>
+    <t>S_939OIRUQ</t>
+  </si>
+  <si>
+    <t>MUHAMMAD BAGAS PRAKOSO</t>
+  </si>
+  <si>
+    <t>S_XH6NKYJ9</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HANAAN ARIIQOH</t>
+  </si>
+  <si>
+    <t>S_L0KP3W00</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JANUAR ANDRI KUSUMA</t>
+  </si>
+  <si>
+    <t>S_K59JDWDA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIZKY NAUFAL NAZHIR</t>
+  </si>
+  <si>
+    <t>S_NM4VZHQL</t>
+  </si>
+  <si>
+    <t>SHO LEE KHAN AFFANDI</t>
+  </si>
+  <si>
+    <t>S_UAXZ21FC</t>
+  </si>
+  <si>
+    <t>TEGUH WARDOYO BUDI RAHARJO</t>
+  </si>
+  <si>
+    <t>S_XTNPJ5E5</t>
+  </si>
+  <si>
+    <t>WILDAN RIZKY HIDAYAT</t>
+  </si>
+  <si>
+    <t>S_C2XXK59E</t>
+  </si>
+  <si>
+    <t>YUSUF WICAKSONO</t>
+  </si>
+  <si>
+    <t>S_NIDT4VAH</t>
+  </si>
+  <si>
+    <t>ANINDYA GUNAWAN</t>
+  </si>
+  <si>
+    <t>S_P4YB1K9L</t>
+  </si>
+  <si>
+    <t>ARISANTI NABILA PRAMESTI</t>
+  </si>
+  <si>
+    <t>S_YUQS5ROX</t>
+  </si>
+  <si>
+    <t>AYU NASYWA KUMALA</t>
+  </si>
+  <si>
+    <t>S_M1OLPQT4</t>
+  </si>
+  <si>
+    <t>DESTY APRELIA PUSPA PUSPITA</t>
+  </si>
+  <si>
+    <t>S_0EOZXWXU</t>
+  </si>
+  <si>
+    <t>DEWI SEPTI MULYANI</t>
+  </si>
+  <si>
+    <t>S_LQYLGPSV</t>
+  </si>
+  <si>
+    <t>LISTIANA ZAHRO</t>
+  </si>
+  <si>
+    <t>S_UFTTKVUR</t>
+  </si>
+  <si>
+    <t>NAIFAH LARISA PUTRI</t>
+  </si>
+  <si>
+    <t>S_1V7ZB7II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAILA PUTRI NURYANTO </t>
+  </si>
+  <si>
+    <t>S_S8WHEHLI</t>
+  </si>
+  <si>
+    <t>NURUL LAILY ULIN NUHA</t>
+  </si>
+  <si>
+    <t>S_9O5BT6EH</t>
+  </si>
+  <si>
+    <t>OLYVIA ERRI VINATA</t>
+  </si>
+  <si>
+    <t>S_WGY6LHE4</t>
+  </si>
+  <si>
+    <t>PIOLETTA CAHYA MEILANI PUTRI</t>
+  </si>
+  <si>
+    <t>S_09ZFOOQL</t>
+  </si>
+  <si>
+    <t>REVA CLAUDIA PUTRI AZZAHRA</t>
+  </si>
+  <si>
+    <t>S_PP7ZAEGZ</t>
+  </si>
+  <si>
+    <t>RINTAN RAHMA PUSPITASARI</t>
+  </si>
+  <si>
+    <t>S_ATYEZ1M0</t>
+  </si>
+  <si>
+    <t>SAVIRA MIFTAHUL JANNAH</t>
+  </si>
+  <si>
+    <t>S_251OUE7I</t>
+  </si>
+  <si>
+    <t>SYAHIRA KHANSA RIZKY KUSUMA</t>
+  </si>
+  <si>
+    <t>S_ZXCEK5Q6</t>
+  </si>
+  <si>
+    <t>WILDA DESVIANTY LATENDENGAN</t>
   </si>
 </sst>
 </file>
@@ -419,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,13 +645,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>111</v>
+        <v>15063</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2">
-        <v>85</v>
+        <f ca="1">RANDBETWEEN(80,98)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -476,13 +663,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>777</v>
+        <v>15104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>84</v>
+        <f t="shared" ref="E3:E35" ca="1" si="0">RANDBETWEEN(80,98)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -493,13 +681,572 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>888</v>
+        <v>15105</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15107</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15111</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15112</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15113</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15115</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15116</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15118</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15119</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15121</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15122</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15124</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15125</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15127</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15128</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15130</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>15132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>15133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15134</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2">
+        <v>15135</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>15136</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
